--- a/medicine/Psychotrope/Distillerie_des_Menhirs/Distillerie_des_Menhirs.xlsx
+++ b/medicine/Psychotrope/Distillerie_des_Menhirs/Distillerie_des_Menhirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La distillerie des Menhirs est une distillerie de whisky et d'eaux-de-vie française, située à Plomelin dans le Finistère[1].
+La distillerie des Menhirs est une distillerie de whisky et d'eaux-de-vie française, située à Plomelin dans le Finistère.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1986 par Guy Le Lay, la distillerie produit initialement du pommeau de Bretagne, mélange de jus de pomme et de lambig. Vendu sous l'appellation Pommeau des Menhirs, il est le premier à recevoir le label appellation d'origine contrôlée (AOC).
-En 1998, elle se lance dans la distillation d'un whisky à base de blé noir mais élaboré suivant la méthode écossaise, par double distillation[2]. En septembre 2002, sort la première bouteille nommée EDDU (blé noir en langue bretonne).
-Un livre publié en 2021 raconte les cent années de la distillerie avec les 5 générations successives de la famille Le Lay qui se sont succédé à la tête de l'entreprise[3].
+En 1998, elle se lance dans la distillation d'un whisky à base de blé noir mais élaboré suivant la méthode écossaise, par double distillation. En septembre 2002, sort la première bouteille nommée EDDU (blé noir en langue bretonne).
+Un livre publié en 2021 raconte les cent années de la distillerie avec les 5 générations successives de la famille Le Lay qui se sont succédé à la tête de l'entreprise.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Gamme de Whisky</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le whisky EDDU revendique être le seul whisky au monde produit à partir de blé noir uniquement. Il développe des senteurs florales et des notes boisées. Consommé frais, il révèle des goûts de fruits mûrs[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le whisky EDDU revendique être le seul whisky au monde produit à partir de blé noir uniquement. Il développe des senteurs florales et des notes boisées. Consommé frais, il révèle des goûts de fruits mûrs.
 </t>
         </is>
       </c>
@@ -578,16 +594,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Embouteillages officiels
-Eddu Diamant - 44 % - Pur Blé Noir ;
+          <t>Embouteillages officiels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eddu Diamant - 44 % - Pur Blé Noir ;
 Eddu Gold - 43 % - Pur Blé Noir ;
 Eddu Silver - 40 % - Pur Blé Noir ;
 Eddu Brocéliande - 42 % - Pur Blé Noir ;
 Eddu Grey Rock - 40 % - Blend ;
 Eddu Grey Rock Brocéliande - 40 % - Blend ;
-Ed Gwenn - 45 % - Single Grain.
-Embouteillages séries limitées
-Eddu "Cuvée de Bourgogne" - Pur Blé Noir - 54 % - (2020) ;
+Ed Gwenn - 45 % - Single Grain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Embouteillages de whisky</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Embouteillages séries limitées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eddu "Cuvée de Bourgogne" - Pur Blé Noir - 54 % - (2020) ;
 Eddu Silver "Affinage Sherry" - Pur Blé Noir - 46 % - (2017) ;
 Eddu Grey Rock "Affinage Porto" - 40 % - Blend - (2017) ;
 Eddu Grey Rock Tourbé - 40 % - Blend - (2021) ;
@@ -600,44 +655,185 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Distillerie_des_Menhirs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Autres embouteillages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pommeaux
-Pommeau Bretagne Vieille Réserve - 17 % - 5 à 6 ans.
-Pommeau Tradition - 17 % - 2 à 3 ans.
-Chouchens
-Chouchen Hydromel - 13.5 %.
-Lambig
-Lambig de Bretagne Hors d’âge - 40 % - plus de 3 ans.
-Lambig de Bretagne Tradition - 40 % - 3 ans.
-Autre eau-de-vie
-Gwenaval Blanche de pomme - 40 %.
-Cidres
-Cidre des Menhirs - Brut - 5 %.</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pommeaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pommeau Bretagne Vieille Réserve - 17 % - 5 à 6 ans.
+Pommeau Tradition - 17 % - 2 à 3 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres embouteillages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chouchens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chouchen Hydromel - 13.5 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autres embouteillages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lambig</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lambig de Bretagne Hors d’âge - 40 % - plus de 3 ans.
+Lambig de Bretagne Tradition - 40 % - 3 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autres embouteillages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autre eau-de-vie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Gwenaval Blanche de pomme - 40 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distillerie_des_Menhirs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autres embouteillages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cidres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cidre des Menhirs - Brut - 5 %.</t>
         </is>
       </c>
     </row>
